--- a/networks/scenarios-info.xlsx
+++ b/networks/scenarios-info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\term2\social media\finalProject-ASNEC-2019\finalProject-ASNEC-2019\networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330595FF-53DB-4C94-89AE-45BE1AD06057}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9DAEF1-CF9F-43A5-969A-D3FFE63EF899}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2436" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{3FCA42D8-6E4E-4021-821B-AFFACC694ACE}"/>
+    <workbookView xWindow="2808" yWindow="3492" windowWidth="17280" windowHeight="8964" xr2:uid="{3FCA42D8-6E4E-4021-821B-AFFACC694ACE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -70,7 +70,25 @@
     <t>انجام سفر پروازی</t>
   </si>
   <si>
-    <t>مقدار ظرفیت پر نشده / کل ظرفیت</t>
+    <t>مقدار ظرفیت پر نشده - کل ظرفیت</t>
+  </si>
+  <si>
+    <t>وضعیت جهان کوچک بودن سفرها</t>
+  </si>
+  <si>
+    <t>تعداد سفرها</t>
+  </si>
+  <si>
+    <t>فرودگاه های هاب</t>
+  </si>
+  <si>
+    <t>تاخیر مسیرهای پروازی</t>
+  </si>
+  <si>
+    <t>مجموع تاخیر در پروازهای هر مسیر</t>
+  </si>
+  <si>
+    <t>فرودگاه های پر پرواز (جهت دار)</t>
   </si>
 </sst>
 </file>
@@ -444,7 +462,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,31 +531,75 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
